--- a/mySystem/mySystem/xls/PTV/10 SOP-MFG-416-R01A 超声波焊接记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/10 SOP-MFG-416-R01A 超声波焊接记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\305，PTV生产记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\newnew\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1455,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1820,7 +1820,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
